--- a/Data/holding.xlsx
+++ b/Data/holding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xywan\OneDrive - SAIF\桌面\RiskQuantLib-Universal-Excess-Return-Analysis-Frame\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xywan\Desktop\New\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4522AE06-950C-4D7D-B3C3-154F6C7C66C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E5456-0279-4F57-9268-26C88BADEACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6758" yWindow="8490" windowWidth="15390" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>belongTo</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -161,6 +155,14 @@
   </si>
   <si>
     <t>fund_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeSec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameSec</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -500,12 +502,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,33 +515,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44348</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>0.41944101755007301</v>
@@ -548,21 +550,21 @@
         <v>-2.6008363999999999E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44348</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4.7151352011475349E-2</v>
@@ -571,21 +573,21 @@
         <v>-8.0328697000000004E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44348</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0.53340763043845152</v>
@@ -594,21 +596,21 @@
         <v>6.7034798000000007E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44348</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0.33219016722716471</v>
@@ -617,21 +619,21 @@
         <v>9.9609353999999997E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44348</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0.24346443374998641</v>
@@ -640,21 +642,21 @@
         <v>-6.0017969999999997E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44348</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>0.32356146983673406</v>
@@ -663,21 +665,21 @@
         <v>-9.6953918E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44348</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0.10078392918611474</v>
@@ -686,21 +688,21 @@
         <v>3.5416303000000003E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44348</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0.49971174618474684</v>
@@ -709,21 +711,21 @@
         <v>4.6384993999999999E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44348</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0.1676435619710635</v>
@@ -732,21 +734,21 @@
         <v>-3.1553500999999998E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44348</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0.33264469184418971</v>
@@ -755,21 +757,21 @@
         <v>-8.8292302000000003E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44349</v>
       </c>
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
       </c>
       <c r="E12">
         <v>0.50529635188633337</v>
@@ -778,21 +780,21 @@
         <v>-2.3313395000000001E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44349</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>1.2166167094443138E-2</v>
@@ -801,21 +803,21 @@
         <v>-9.6912328000000006E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44349</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0.48253748101922345</v>
@@ -824,21 +826,21 @@
         <v>1.1065098000000001E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44349</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0.48947710612800832</v>
@@ -847,21 +849,21 @@
         <v>3.2488822000000001E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44349</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>3.0726779800744661E-2</v>
@@ -870,21 +872,21 @@
         <v>-7.0798052E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44349</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
       </c>
       <c r="E17">
         <v>0.24273166184255487</v>
@@ -893,21 +895,21 @@
         <v>-2.9802242999999999E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44349</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0.23706445222869213</v>
@@ -916,21 +918,21 @@
         <v>-3.7431424999999997E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44349</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0.41499155041336089</v>
@@ -939,21 +941,21 @@
         <v>-2.7672983000000002E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44349</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0.16963714500738394</v>
@@ -962,21 +964,21 @@
         <v>6.5128832999999997E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44349</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0.41537130457925514</v>
@@ -985,7 +987,7 @@
         <v>9.2812247E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
